--- a/changes/545-barrels.xlsx
+++ b/changes/545-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F2D0A3-E2E4-48D5-B55F-B28A75F1C311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3E32AB-6A30-4059-BF56-932038DF0A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -959,7 +959,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1068,7 @@
         <v>-1.4566666666666663</v>
       </c>
       <c r="P3">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Q3">
         <v>16</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f>ROUND(Q3*0.03+P3+R3, 2)</f>
+        <f>ROUND(Q3*0.029+P3+R3, 2)</f>
         <v>0.5</v>
       </c>
       <c r="U3">
@@ -1099,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="E4" s="1">
         <v>-3</v>
@@ -1124,10 +1124,10 @@
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N5" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
-        <v>-1.1166666666666671</v>
+        <v>-1.3166666666666664</v>
       </c>
       <c r="P4">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Q4">
         <v>12.3622</v>
@@ -1136,8 +1136,8 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <f>ROUND(Q4*0.03+P4+R4, 2)</f>
-        <v>0.39</v>
+        <f t="shared" ref="S4:S5" si="1">ROUND(Q4*0.029+P4+R4, 2)</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E5" s="1">
         <v>-3</v>
@@ -1176,10 +1176,10 @@
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="P5">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Q5">
         <v>8.2677200000000006</v>
@@ -1188,8 +1188,8 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <f>ROUND(Q5*0.03+P5+R5, 2)</f>
-        <v>0.27</v>
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">

--- a/changes/545-barrels.xlsx
+++ b/changes/545-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3E32AB-6A30-4059-BF56-932038DF0A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38896AF0-DF03-44A5-B2E9-C7D83B1B746A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -959,7 +959,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1061,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
@@ -1148,20 +1148,20 @@
         <v>24</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>0.28000000000000003</v>
       </c>
       <c r="E5" s="1">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I5" s="1">
         <v>-0.1</v>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>2.1333333333333333</v>
+        <v>-1.3166666666666673</v>
       </c>
       <c r="P5">
         <v>0.04</v>

--- a/changes/545-barrels.xlsx
+++ b/changes/545-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38896AF0-DF03-44A5-B2E9-C7D83B1B746A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7014E38C-4E56-4890-A849-97A34D571130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -959,7 +959,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1068,7 @@
         <v>-1.4566666666666663</v>
       </c>
       <c r="P3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="Q3">
         <v>16</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f>ROUND(Q3*0.029+P3+R3, 2)</f>
+        <f>ROUND(Q3*0.026+P3+R3, 2)</f>
         <v>0.5</v>
       </c>
       <c r="U3">
@@ -1127,7 +1127,7 @@
         <v>-1.3166666666666664</v>
       </c>
       <c r="P4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="Q4">
         <v>12.3622</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S5" si="1">ROUND(Q4*0.029+P4+R4, 2)</f>
+        <f t="shared" ref="S4:S5" si="1">ROUND(Q4*0.026+P4+R4, 2)</f>
         <v>0.4</v>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1176,10 +1176,10 @@
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>-1.3166666666666673</v>
+        <v>-1.5166666666666666</v>
       </c>
       <c r="P5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="Q5">
         <v>8.2677200000000006</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">

--- a/changes/545-barrels.xlsx
+++ b/changes/545-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7014E38C-4E56-4890-A849-97A34D571130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3403908-5D12-4A81-9371-53204818BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>new</t>
   </si>
@@ -108,6 +108,24 @@
   </si>
   <si>
     <t>Izhmash AKS-74U 210mm 5.45x39 Barrel</t>
+  </si>
+  <si>
+    <t>ak12_std_415mm_barrel</t>
+  </si>
+  <si>
+    <t>AK-12 415mm 5.45x39</t>
+  </si>
+  <si>
+    <t>kalashnikov_concern_std_rpk16_559mm_barrel</t>
+  </si>
+  <si>
+    <t>RPK16 556mm Barrel</t>
+  </si>
+  <si>
+    <t>kalashnikov_concern_ak12k_314mm_barrel</t>
+  </si>
+  <si>
+    <t>AK12k 314mm Barrel</t>
   </si>
 </sst>
 </file>
@@ -959,7 +977,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1141,7 @@
         <v>3000</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N5" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
+        <f t="shared" ref="N4:N9" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
         <v>-1.3166666666666664</v>
       </c>
       <c r="P4">
@@ -1136,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S5" si="1">ROUND(Q4*0.026+P4+R4, 2)</f>
+        <f t="shared" ref="S4:S9" si="1">ROUND(Q4*0.026+P4+R4, 2)</f>
         <v>0.4</v>
       </c>
     </row>
@@ -1206,51 +1224,161 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-4</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>185</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>-18.883333333333336</v>
+      </c>
+      <c r="P7">
+        <v>0.33</v>
+      </c>
+      <c r="Q7">
+        <v>22.007899999999999</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>43</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>C8-D8*20-E8*0.8-F8*0.6-H8*5+I8*10+J8/300</f>
+        <v>-14.856666666666667</v>
+      </c>
+      <c r="P8">
+        <v>0.33</v>
+      </c>
+      <c r="Q8">
+        <v>16</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="H9" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-90</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1">
+        <v>1500</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>-14.850000000000001</v>
+      </c>
+      <c r="P9">
+        <v>0.33</v>
+      </c>
+      <c r="Q9">
+        <v>12.3622</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/changes/545-barrels.xlsx
+++ b/changes/545-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3403908-5D12-4A81-9371-53204818BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047A79F7-9642-40DB-8649-DB3A1FEA2F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,7 +977,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1182,7 @@
         <v>0.25</v>
       </c>
       <c r="I5" s="1">
-        <v>-0.1</v>
+        <v>-0.08</v>
       </c>
       <c r="J5" s="1">
         <v>-200</v>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>-1.5166666666666666</v>
+        <v>-1.3166666666666664</v>
       </c>
       <c r="P5">
         <v>0.08</v>
@@ -1355,7 +1355,7 @@
         <v>0.15</v>
       </c>
       <c r="I9" s="1">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="J9" s="1">
         <v>-90</v>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>-14.850000000000001</v>
+        <v>-14.350000000000001</v>
       </c>
       <c r="P9">
         <v>0.33</v>
